--- a/FE12/Cell Modeling/FE11_P42A_HPPC_InternalResistances.xlsx
+++ b/FE12/Cell Modeling/FE11_P42A_HPPC_InternalResistances.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptop\OneDrive - University of California, Davis\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptop\OneDrive - University of California, Davis\Documents\GitHub\FE12-Accumulator\FE12\Cell Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22190B06-ED3B-42E2-AABC-67661A4E6C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC180E4-CDD9-47ED-81A0-ABDD4225D44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="3225" windowWidth="21600" windowHeight="14055" xr2:uid="{CEA28562-A774-4179-8452-6FD2F2C87B47}"/>
+    <workbookView xWindow="6705" yWindow="4485" windowWidth="21495" windowHeight="12795" xr2:uid="{CEA28562-A774-4179-8452-6FD2F2C87B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>SOC (%)</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>IR_313</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -1772,10 +1775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601490B4-DB49-47FD-9E78-E8909CFF9E88}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,6 +1940,29 @@
         <v>1.2716E-2</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGE(B2:B11)</f>
+        <v>1.49899E-2</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE(C2:C11)</f>
+        <v>1.36537E-2</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(D2:D11)</f>
+        <v>1.20222E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>AVERAGE(B13,C14,D13)</f>
+        <v>1.350605E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
